--- a/P0038/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0038/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0038\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0038/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D591AB2-52CE-4A74-943C-5B583EF87FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{3D591AB2-52CE-4A74-943C-5B583EF87FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB03D28-3AA7-443B-B0B0-A8E6A700B658}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,72 +36,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Directorio</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Autor 4</t>
-  </si>
-  <si>
-    <t>Autor 5</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Formato</t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
-    <t>Contiene Anexos</t>
-  </si>
-  <si>
-    <t>Anexos</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
   </si>
   <si>
     <t>P0038</t>
   </si>
   <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>Extension inundacion Mojana</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0038/03_OTROS/Extension inundacion Mojana</t>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>2024-Monitoreo y seguimiento en la MOJANA-IDEAM</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0038/02_PRODUCTOS/Monitoreo_IDEAM/2024-Monitoreo y seguimiento en la MOJANA-IDEAM.pdf</t>
   </si>
   <si>
     <t>IDEAM</t>
@@ -110,32 +110,97 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve"> La carpeta "Extension inundacion Mojana" contiene información cartográfica sobre la extensión de las inundaciones en la región durante la época de lluvias, incluyendo datos de monitoreo satelital y modelaciones de inundaciones. Esta información es esencial para el análisis de riesgos y la gestión de inundaciones en la zona</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>La carpeta "Extension inundacion Mojana" del proyecto Mojana alberga una colección de 196 archivos, organizados en 14 subcarpetas, que proporcionan información cartográfica en formatos .shp y TIFF, junto con archivos en formato PDF.  Esta carpeta contiene información sobre la extensión de las inundaciones en la región de la Mojana,  incluyendo cartografía de inundaciones durante la época de lluvias ("época niña"),  monitoreo satelital,  y salidas gráficas de la modelación de zonas de vertederos y áreas de inundación.  Esta información se generó en el año 2019 y es un componente valioso para la comprensión de la dinámica de inundaciones en la región,  facilitando el análisis de riesgos y la planificación de estrategias de gestión.</t>
+    <t>El documento presenta un informe técnico sobre las acciones implementadas por el Instituto de Hidrología, Meteorología y Estudios Ambientales (IDEAM) en la región de La Mojana, Colombia. Su objetivo principal es mejorar la resiliencia climática de las comunidades vulnerables a través de la gestión de riesgos relacionados con inundaciones y escasez de agua, en el marco del proyecto PNUD Mojana. Este informe se organiza en varias secciones que abordan diferentes iniciativas y actividades en la región como: proyecto PNUD Mojada, monitoreos comunitarios, visitas a la red hidrometeorológica, pronósticos y alertas hidrometeorológicas, estas iniciativas y actividades incluyen los departamentos Sucre y Córdoba, y los municipios de Ayapel, San Marcos, San Benito Abad, y Majagual.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis exhaustivo de las acciones y resultados del Instituto de Hidrología, Meteorología y Estudios Ambientales (IDEAM) en la región de La Mojana, Colombia, con un enfoque en la mejora de la resiliencia climática y la gestión de riesgos. Su objetivo principal es mejorar la resiliencia climática de las comunidades vulnerables a través de la gestión de riesgos relacionados con inundaciones y escasez de agua, en el marco del proyecto PNUD Mojana. En cuanto a las metodologías, el documento menciona el uso de plataformas digitales para la centralización de datos y la comunicación, así como la implementación de un sistema de alertas tempranas basado en análisis hidrometeorológicos. La colaboración con entidades como CIIFEN y el PNUD también se destaca como un enfoque integral para abordar los desafíos climáticos en la región.  Los principales resultados son:  1. Implementación del Proyecto PNUD Mojana: Se ha avanzado significativamente en la reducción de la vulnerabilidad al cambio climático en la Depresión Momposina, con un enfoque en la gestión de inundaciones y escasez de agua. El componente de alertas tempranas del Centro Regional de Pronóstico y Alertas Tempranos de La Mojana (CRPA) ha sido fundamental para la toma de decisiones informadas. 2. Monitoreo Comunitario: La iniciativa VOLUNCLIMA ha permitido la centralización de datos de precipitaciones a través de una plataforma web y un grupo de WhatsApp, facilitando la comunicación y el intercambio de información entre comunidades en Sucre, Cesar y Córdoba.  3. Mantenimiento de la Red Hidrometeorológica: Se han realizado visitas periódicas a las estaciones hidrometeorológicas, asegurando su correcto funcionamiento y la calidad de los datos recolectados. Las visitas documentadas incluyen estaciones en Ayapel, San Marcos, y otros municipios, lo que refuerza el compromiso del IDEAM con la infraestructura de monitoreo. 4. Pronósticos y Alertas: El IDEAM ha emitido pronósticos diarios y boletines climatológicos mensuales, proporcionando información crítica sobre condiciones meteorológicas y niveles de alerta. Estos informes son esenciales para la prevención de riesgos y la gestión de desastres en la región.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>S3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0038/03_OTROS/Mapas</t>
+  </si>
+  <si>
+    <t>Las infografías presentan de manera gráfica, concisa y sencilla información útil. No obstante, carecen de un análisis o interpretación detallada de los hallazgos, lo que podría limitar su utilidad en procesos de toma de decisiones más complejos</t>
+  </si>
+  <si>
+    <t>Red hidrometeorológica del IDEAM en La Mojana, estaciones pluviométricas, estaciones hidrológicas, estaciones climatológicas, monitoreo, divulgación, IDEAM, Nechí, Ayapel, San Jacinto de Cauca, Guaranda, Majagual, Achí, San Marcos, Sucre, San Benito de Abad, Caimito, Magangué, cartografía</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>Hidrologia La Mojana</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0038/02_PRODUCTOS/Caracterizacion hidrologica/Hidrologia de La Mojana.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>El documento presenta un análisis exhaustivo de la situación hidrológica de la región de La Mojana, que abarca principalmente los departamentos de Sucre y Córdoba en Colombia. Este estudio se centra en la caracterización de la oferta y demanda hídrica, así como en la identificación de zonas de inundación y la susceptibilidad al desabastecimiento hídrico, en el contexto de los desafíos que enfrenta la región debido al cambio climático. El principal objetivo del documento es proporcionar una caracterización hidrológica detallada de La Mojana, enfatizando la importancia de comprender los sistemas acuíferos locales para garantizar un abastecimiento adecuado de agua durante las temporadas secas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>. Los temas que aborda es documento son: contexto hidrológico, oferta y demanda hídrica, zonas de inundación y sistemas acuíferos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>El informe aborda un análisis detallado de la situación hídrica en la región de La Mojana, que abarca once municipios de los departamentos de Antioquia, Bolívar, Córdoba y Sucre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. El principal objetivo del documento es proporcionar una caracterización hidrológica detallada de La Mojana, enfatizando la importancia de comprender los sistemas acuíferos locales para garantizar un abastecimiento adecuado de agua durante las temporadas secas. La metodología se basa en datos obtenidos a través de la red hidrometeorológica del IDEAM, que incluye estaciones automáticas y convencionales para el monitoreo de variables climáticas e hidrológicas. Se utilizan imágenes de satélite (Sentinel-1) para estimar la extensión de inundaciones en diferentes períodos, lo que permite un análisis temporal de los eventos de inundación. En cuanto a los resultados se evidencia que El sector agrícola es el mayor consumidor de agua en La Mojana, con un consumo anual de 460.8 Mm³, mientras que el consumo doméstico se sitúa en 88.6 Mm³. Esto resalta la dependencia del sector agrícola de los recursos hídricos. Seguidamente, la región presenta un 9.89% de su territorio como zonas potencialmente inundables, lo que representa un alto porcentaje en comparación con el total nacional. La intensidad y duración de fenómenos climáticos, como el fenómeno de La Niña, pueden agravar esta situación. También, se identifican dos sistemas acuíferos principales en la región, con un nivel de conocimiento medio sobre su capacidad y características. Esto indica la necesidad de realizar estudios adicionales para mejorar la gestión de estos recursos. En cuanto a la red hidrometeorológica, el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>IDEAM opera 55 estaciones hidrometeorológicas en La Mojana, que permiten el monitoreo continuo de variables climáticas e hidrológicas, contribuyendo a la gestión del agua y la prevención de inundaciones.</t>
+    </r>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Se requieren más detalles para proporcionar una descripción más específica sobre su contenido y uso de los raster presentes en esta carpeta, ya que carece de un archivo descriptivo o informe.</t>
-  </si>
-  <si>
-    <t>Mojana;  inundación;  época niña;  monitoreo satelital;  modelación;  vertederos;  zonas de inundación;  cartografía;  información cartográfica;  análisis de riesgo;  gestión de riesgos</t>
+    <t>Ambos archivos muestran información base y relevante de La Mojana de manera gráfica, concisa y sencilla. La carpeta contiene una infografía la cual, muestra mapas que describen la oferta y demanda hídrica, los sistemas acuíferos, la susceptibilidad al desabastecimiento hídrico y zonas potencialmente inundables.</t>
+  </si>
+  <si>
+    <t>Divulgación, IDEAM, Nechí, Ayapel, San Jacinto de Cauca, Guaranda, Majagual, Achí, San Marcos, Sucre, San Benito de Abad, Caimito, Magangué, caracterización hidrológica, cartografía</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +222,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -178,19 +279,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -228,26 +316,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -504,6 +615,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -582,15 +694,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -598,6 +701,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -617,26 +729,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R4" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="Código de proyecto" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="Código de producto" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="Nombre del producto" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="Directorio" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="Año" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="Autor 1" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="Autor 2" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="Autor 3" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="Autor 4" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="Autor 5" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="Descripción" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="Tipo de producto" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="Formato" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="Resumen" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="Contiene Anexos" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="Anexos" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="Observaciones" dataDxfId="1" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="Palabras Clave" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,30 +1017,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="14" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +1050,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -984,23 +1096,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2">
+        <v>2024</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1015,90 +1127,106 @@
       <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="14" customFormat="1" ht="16.5">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
+      <c r="H3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1110,6 +1238,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1253,37 +1390,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0038/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0038/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0038/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{3D591AB2-52CE-4A74-943C-5B583EF87FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB03D28-3AA7-443B-B0B0-A8E6A700B658}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{3D591AB2-52CE-4A74-943C-5B583EF87FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABA6DD9-5ACF-4C31-919D-91934848925A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>2024-Monitoreo y seguimiento en la MOJANA-IDEAM</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0038/02_PRODUCTOS/Monitoreo_IDEAM/2024-Monitoreo y seguimiento en la MOJANA-IDEAM.pdf</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0038/02_PRODUCTOS/Monitoreo_IDEAM/2024-Monitoreo y seguimiento en LA MOJANA-IDEAM.pdf</t>
   </si>
   <si>
     <t>IDEAM</t>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -351,14 +351,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -1020,7 +1017,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1028,7 +1025,7 @@
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1050,7 +1047,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1130,7 +1127,7 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M2" t="s">
@@ -1152,59 +1149,59 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="16.5">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:18" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <v>2024</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1212,7 +1209,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1238,15 +1235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1390,10 +1378,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0038/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0038/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0038/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{3D591AB2-52CE-4A74-943C-5B583EF87FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABA6DD9-5ACF-4C31-919D-91934848925A}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{3D591AB2-52CE-4A74-943C-5B583EF87FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA07290-A584-4B30-9091-D3A6DDFF8CFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,11 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1017,7 +1015,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1103,7 +1101,7 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E2">
@@ -1180,7 +1178,7 @@
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1189,10 +1187,10 @@
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -1235,6 +1233,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1378,19 +1385,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>